--- a/data/evaluation/matches_2021-06-21.xlsx
+++ b/data/evaluation/matches_2021-06-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2132,6 +2132,254 @@
         <v>2</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Group</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" t="n">
+        <v>4</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Group</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Group</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Group</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
